--- a/WidthDepth/DepthWidth_Station02_2022-07-22_1000.xlsx
+++ b/WidthDepth/DepthWidth_Station02_2022-07-22_1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amymad138\Documents\Ecuador2022\Metabolism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/WidthDepth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0557A863-6A93-4EF7-92BD-8877BC1DA50E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0557A863-6A93-4EF7-92BD-8877BC1DA50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E37B46F-EA6D-4E38-9EEE-64C18D68F5EE}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11020" windowHeight="6280" xr2:uid="{B948E015-7BA0-492A-BA65-64691EF600FF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B948E015-7BA0-492A-BA65-64691EF600FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">Time </t>
   </si>
@@ -43,6 +52,12 @@
   </si>
   <si>
     <t>depth (cm)</t>
+  </si>
+  <si>
+    <t>Average depth</t>
+  </si>
+  <si>
+    <t>Thalwag depth</t>
   </si>
 </sst>
 </file>
@@ -396,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABB2AC1-D15B-4F5E-BA02-A20597BCC648}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,7 +423,7 @@
     <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +431,7 @@
         <v>0.38819444444444445</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -424,8 +439,8 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -438,8 +453,20 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -452,8 +479,24 @@
       <c r="D5">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <f>A5</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>B5</f>
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <f>D7</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -467,7 +510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -481,7 +524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -495,7 +538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -509,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -522,8 +565,24 @@
       <c r="D10">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <f>A10</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>B10</f>
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(D10:D14)</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I10">
+        <f>D12</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -537,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -551,7 +610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -565,7 +624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -579,7 +638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -592,8 +651,24 @@
       <c r="D15">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <f>A15</f>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f>B15</f>
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(D15:D19)</f>
+        <v>49</v>
+      </c>
+      <c r="I15">
+        <f>D17</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -607,7 +682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -621,7 +696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -635,7 +710,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -649,7 +724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
@@ -662,8 +737,24 @@
       <c r="D20">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <f>A20</f>
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <f>B20</f>
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGE(D20:D24)</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="I20">
+        <f>D22</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4</v>
       </c>
@@ -677,7 +768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4</v>
       </c>
@@ -691,7 +782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4</v>
       </c>
@@ -705,7 +796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -719,7 +810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -732,8 +823,24 @@
       <c r="D25">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <f>A25</f>
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <f>B25</f>
+        <v>65</v>
+      </c>
+      <c r="H25">
+        <f>AVERAGE(D25:D29)</f>
+        <v>29.6</v>
+      </c>
+      <c r="I25">
+        <f>D27</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
@@ -747,7 +854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>5</v>
       </c>
@@ -761,7 +868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>5</v>
       </c>
@@ -775,7 +882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5</v>
       </c>
@@ -789,7 +896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -802,8 +909,24 @@
       <c r="D30">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <f>A30</f>
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <f>B30</f>
+        <v>70</v>
+      </c>
+      <c r="H30">
+        <f>AVERAGE(D30:D34)</f>
+        <v>22</v>
+      </c>
+      <c r="I30">
+        <f>D32</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>8</v>
       </c>
@@ -817,7 +940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
@@ -831,7 +954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -845,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>8</v>
       </c>
@@ -859,7 +982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9</v>
       </c>
@@ -872,8 +995,24 @@
       <c r="D35">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <f>A35</f>
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <f>B35</f>
+        <v>35</v>
+      </c>
+      <c r="H35">
+        <f>AVERAGE(D35:D39)</f>
+        <v>21.6</v>
+      </c>
+      <c r="I35">
+        <f>D37</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9</v>
       </c>
@@ -887,7 +1026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
@@ -901,7 +1040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>9</v>
       </c>
@@ -915,7 +1054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>9</v>
       </c>
@@ -929,7 +1068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -942,8 +1081,24 @@
       <c r="D40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <f>A40</f>
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <f>B40</f>
+        <v>30</v>
+      </c>
+      <c r="H40">
+        <f>AVERAGE(D40:D44)</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I40">
+        <f>D42</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10</v>
       </c>
@@ -957,7 +1112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>10</v>
       </c>
@@ -971,7 +1126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>10</v>
       </c>
@@ -985,7 +1140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>10</v>
       </c>
